--- a/LegSizeDB.xlsx
+++ b/LegSizeDB.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kacper\Desktop\Voting Sys Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="633">
   <si>
     <t>Country</t>
   </si>
@@ -29,12 +33,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Value (Text)</t>
-  </si>
-  <si>
-    <t>Value (Numeric)</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1917,19 +1915,17 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t>ParlSize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1956,13 +1952,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2252,19 +2256,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F211"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2278,3800 +2279,3574 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>2018</v>
       </c>
-      <c r="E2"/>
-      <c r="F2">
+      <c r="E2">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3">
         <v>2021</v>
       </c>
-      <c r="E3"/>
-      <c r="F3">
+      <c r="E3">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>2021</v>
       </c>
-      <c r="E4"/>
-      <c r="F4">
+      <c r="E4">
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5">
         <v>2023</v>
       </c>
-      <c r="E5"/>
-      <c r="F5">
+      <c r="E5">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
       </c>
       <c r="D6">
         <v>2022</v>
       </c>
-      <c r="E6"/>
-      <c r="F6">
+      <c r="E6">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7">
         <v>2020</v>
       </c>
-      <c r="E7"/>
-      <c r="F7">
+      <c r="E7">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8">
         <v>2023</v>
       </c>
-      <c r="E8"/>
-      <c r="F8">
+      <c r="E8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
       </c>
       <c r="D9">
         <v>2023</v>
       </c>
-      <c r="E9"/>
-      <c r="F9">
+      <c r="E9">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
       </c>
       <c r="D10">
         <v>2021</v>
       </c>
-      <c r="E10"/>
-      <c r="F10">
+      <c r="E10">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
       <c r="D11">
         <v>2021</v>
       </c>
-      <c r="E11"/>
-      <c r="F11">
+      <c r="E11">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
       </c>
       <c r="D12">
         <v>2022</v>
       </c>
-      <c r="E12"/>
-      <c r="F12">
+      <c r="E12">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
       </c>
       <c r="D13">
         <v>2024</v>
       </c>
-      <c r="E13"/>
-      <c r="F13">
+      <c r="E13">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
       </c>
       <c r="D14">
         <v>2024</v>
       </c>
-      <c r="E14"/>
-      <c r="F14">
+      <c r="E14">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
       </c>
       <c r="D15">
         <v>2021</v>
       </c>
-      <c r="E15"/>
-      <c r="F15">
+      <c r="E15">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
       </c>
       <c r="D16">
         <v>2022</v>
       </c>
-      <c r="E16"/>
-      <c r="F16">
+      <c r="E16">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
-      <c r="E17"/>
-      <c r="F17">
+      <c r="E17">
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
       </c>
       <c r="D18">
         <v>2022</v>
       </c>
-      <c r="E18"/>
-      <c r="F18">
+      <c r="E18">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
       </c>
       <c r="D19">
         <v>2024</v>
       </c>
-      <c r="E19"/>
-      <c r="F19">
+      <c r="E19">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
       </c>
       <c r="D20">
         <v>2024</v>
       </c>
-      <c r="E20"/>
-      <c r="F20">
+      <c r="E20">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
       </c>
       <c r="D21">
         <v>2020</v>
       </c>
-      <c r="E21"/>
-      <c r="F21">
+      <c r="E21">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
         <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
       </c>
       <c r="D22">
         <v>2023</v>
       </c>
-      <c r="E22"/>
-      <c r="F22">
+      <c r="E22">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
       </c>
       <c r="D23">
         <v>2020</v>
       </c>
-      <c r="E23"/>
-      <c r="F23">
+      <c r="E23">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" t="s">
-        <v>74</v>
       </c>
       <c r="D24">
         <v>2023</v>
       </c>
-      <c r="E24"/>
-      <c r="F24">
+      <c r="E24">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
       </c>
       <c r="D25">
         <v>2020</v>
       </c>
-      <c r="E25"/>
-      <c r="F25">
+      <c r="E25">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>78</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
       </c>
       <c r="D26">
         <v>2022</v>
       </c>
-      <c r="E26"/>
-      <c r="F26">
+      <c r="E26">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
         <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
       </c>
       <c r="D27">
         <v>2024</v>
       </c>
-      <c r="E27"/>
-      <c r="F27">
+      <c r="E27">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
         <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
       </c>
       <c r="D28">
         <v>2022</v>
       </c>
-      <c r="E28"/>
-      <c r="F28">
+      <c r="E28">
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" t="s">
-        <v>89</v>
       </c>
       <c r="D29">
         <v>2023</v>
       </c>
-      <c r="E29"/>
-      <c r="F29">
+      <c r="E29">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
         <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
-      <c r="E30"/>
-      <c r="F30">
+      <c r="E30">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
         <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
       </c>
       <c r="D31">
         <v>2020</v>
       </c>
-      <c r="E31"/>
-      <c r="F31">
+      <c r="E31">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
         <v>96</v>
-      </c>
-      <c r="B32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
-      <c r="E32"/>
-      <c r="F32">
+      <c r="E32">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
         <v>99</v>
-      </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
       </c>
       <c r="D33">
         <v>2023</v>
       </c>
-      <c r="E33"/>
-      <c r="F33">
+      <c r="E33">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
         <v>102</v>
-      </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
       </c>
       <c r="D34">
         <v>2020</v>
       </c>
-      <c r="E34"/>
-      <c r="F34">
+      <c r="E34">
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
         <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
       </c>
       <c r="D35">
         <v>2021</v>
       </c>
-      <c r="E35"/>
-      <c r="F35">
+      <c r="E35">
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
         <v>108</v>
-      </c>
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
       </c>
       <c r="D36">
         <v>2021</v>
       </c>
-      <c r="E36"/>
-      <c r="F36">
+      <c r="E36">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
         <v>111</v>
-      </c>
-      <c r="B37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>113</v>
       </c>
       <c r="D37">
         <v>2020</v>
       </c>
-      <c r="E37"/>
-      <c r="F37">
+      <c r="E37">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
         <v>114</v>
-      </c>
-      <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>116</v>
       </c>
       <c r="D38">
         <v>1997</v>
       </c>
-      <c r="E38"/>
-      <c r="F38">
+      <c r="E38">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
         <v>117</v>
-      </c>
-      <c r="B39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
       </c>
       <c r="D39">
         <v>2021</v>
       </c>
-      <c r="E39"/>
-      <c r="F39">
+      <c r="E39">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
         <v>120</v>
-      </c>
-      <c r="B40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" t="s">
-        <v>122</v>
       </c>
       <c r="D40">
         <v>2022</v>
       </c>
-      <c r="E40"/>
-      <c r="F40">
+      <c r="E40">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
         <v>123</v>
-      </c>
-      <c r="B41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
       </c>
       <c r="D41">
         <v>2020</v>
       </c>
-      <c r="E41"/>
-      <c r="F41">
+      <c r="E41">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
         <v>126</v>
-      </c>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
       </c>
       <c r="D42">
         <v>2023</v>
       </c>
-      <c r="E42"/>
-      <c r="F42">
+      <c r="E42">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
         <v>129</v>
-      </c>
-      <c r="B43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
       </c>
       <c r="D43">
         <v>2022</v>
       </c>
-      <c r="E43"/>
-      <c r="F43">
+      <c r="E43">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
         <v>132</v>
-      </c>
-      <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
       </c>
       <c r="D44">
         <v>2022</v>
       </c>
-      <c r="E44"/>
-      <c r="F44">
+      <c r="E44">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
         <v>135</v>
-      </c>
-      <c r="B45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
-      <c r="E45"/>
-      <c r="F45">
+      <c r="E45">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
         <v>138</v>
-      </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>140</v>
       </c>
       <c r="D46">
         <v>2023</v>
       </c>
-      <c r="E46"/>
-      <c r="F46">
+      <c r="E46">
         <v>470</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
         <v>141</v>
-      </c>
-      <c r="B47" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" t="s">
-        <v>143</v>
       </c>
       <c r="D47">
         <v>2021</v>
       </c>
-      <c r="E47"/>
-      <c r="F47">
+      <c r="E47">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48"/>
+        <v>143</v>
+      </c>
       <c r="D48">
         <v>2022</v>
       </c>
-      <c r="E48"/>
-      <c r="F48">
+      <c r="E48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
         <v>146</v>
-      </c>
-      <c r="B49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" t="s">
-        <v>148</v>
       </c>
       <c r="D49">
         <v>2021</v>
       </c>
-      <c r="E49"/>
-      <c r="F49">
+      <c r="E49">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
         <v>149</v>
-      </c>
-      <c r="B50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" t="s">
-        <v>151</v>
       </c>
       <c r="D50">
         <v>2021</v>
       </c>
-      <c r="E50"/>
-      <c r="F50">
+      <c r="E50">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
         <v>152</v>
-      </c>
-      <c r="B51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" t="s">
-        <v>154</v>
       </c>
       <c r="D51">
         <v>2022</v>
       </c>
-      <c r="E51"/>
-      <c r="F51">
+      <c r="E51">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
         <v>155</v>
-      </c>
-      <c r="B52" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" t="s">
-        <v>157</v>
       </c>
       <c r="D52">
         <v>2023</v>
       </c>
-      <c r="E52"/>
-      <c r="F52">
+      <c r="E52">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
         <v>158</v>
-      </c>
-      <c r="B53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" t="s">
-        <v>160</v>
       </c>
       <c r="D53">
         <v>2022</v>
       </c>
-      <c r="E53"/>
-      <c r="F53">
+      <c r="E53">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
         <v>161</v>
-      </c>
-      <c r="B54" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" t="s">
-        <v>163</v>
       </c>
       <c r="D54">
         <v>2020</v>
       </c>
-      <c r="E54"/>
-      <c r="F54">
+      <c r="E54">
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
         <v>164</v>
-      </c>
-      <c r="B55" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" t="s">
-        <v>166</v>
       </c>
       <c r="D55">
         <v>2021</v>
       </c>
-      <c r="E55"/>
-      <c r="F55">
+      <c r="E55">
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
         <v>167</v>
-      </c>
-      <c r="B56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" t="s">
-        <v>169</v>
       </c>
       <c r="D56">
         <v>2020</v>
       </c>
-      <c r="E56"/>
-      <c r="F56">
+      <c r="E56">
         <v>596</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
         <v>170</v>
-      </c>
-      <c r="B57" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" t="s">
-        <v>172</v>
       </c>
       <c r="D57">
         <v>2024</v>
       </c>
-      <c r="E57"/>
-      <c r="F57">
+      <c r="E57">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
         <v>173</v>
-      </c>
-      <c r="B58" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" t="s">
-        <v>175</v>
       </c>
       <c r="D58">
         <v>2022</v>
       </c>
-      <c r="E58"/>
-      <c r="F58">
+      <c r="E58">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
         <v>176</v>
-      </c>
-      <c r="B59" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" t="s">
-        <v>178</v>
       </c>
       <c r="D59">
         <v>2023</v>
       </c>
-      <c r="E59"/>
-      <c r="F59">
+      <c r="E59">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
         <v>179</v>
-      </c>
-      <c r="B60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" t="s">
-        <v>181</v>
       </c>
       <c r="D60">
         <v>2023</v>
       </c>
-      <c r="E60"/>
-      <c r="F60">
+      <c r="E60">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
         <v>182</v>
-      </c>
-      <c r="B61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" t="s">
-        <v>184</v>
       </c>
       <c r="D61">
         <v>2021</v>
       </c>
-      <c r="E61"/>
-      <c r="F61">
+      <c r="E61">
         <v>547</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
         <v>185</v>
-      </c>
-      <c r="B62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" t="s">
-        <v>187</v>
       </c>
       <c r="D62">
         <v>2021</v>
       </c>
-      <c r="E62"/>
-      <c r="F62">
+      <c r="E62">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
         <v>188</v>
-      </c>
-      <c r="B63" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" t="s">
-        <v>190</v>
       </c>
       <c r="D63">
         <v>2022</v>
       </c>
-      <c r="E63"/>
-      <c r="F63">
+      <c r="E63">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
         <v>191</v>
-      </c>
-      <c r="B64" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" t="s">
-        <v>193</v>
       </c>
       <c r="D64">
         <v>2023</v>
       </c>
-      <c r="E64"/>
-      <c r="F64">
+      <c r="E64">
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
         <v>194</v>
-      </c>
-      <c r="B65" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" t="s">
-        <v>196</v>
       </c>
       <c r="D65">
         <v>2024</v>
       </c>
-      <c r="E65"/>
-      <c r="F65">
+      <c r="E65">
         <v>577</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
         <v>197</v>
-      </c>
-      <c r="B66" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" t="s">
-        <v>199</v>
       </c>
       <c r="D66">
         <v>2023</v>
       </c>
-      <c r="E66"/>
-      <c r="F66">
+      <c r="E66">
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
         <v>200</v>
-      </c>
-      <c r="B67" t="s">
-        <v>201</v>
-      </c>
-      <c r="C67" t="s">
-        <v>202</v>
       </c>
       <c r="D67">
         <v>2024</v>
       </c>
-      <c r="E67"/>
-      <c r="F67">
+      <c r="E67">
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
         <v>203</v>
-      </c>
-      <c r="B68" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" t="s">
-        <v>205</v>
       </c>
       <c r="D68">
         <v>2021</v>
       </c>
-      <c r="E68"/>
-      <c r="F68">
+      <c r="E68">
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
         <v>206</v>
-      </c>
-      <c r="B69" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" t="s">
-        <v>208</v>
       </c>
       <c r="D69">
         <v>2020</v>
       </c>
-      <c r="E69"/>
-      <c r="F69">
+      <c r="E69">
         <v>275</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
         <v>209</v>
-      </c>
-      <c r="B70" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" t="s">
-        <v>211</v>
       </c>
       <c r="D70">
         <v>2023</v>
       </c>
-      <c r="E70"/>
-      <c r="F70">
+      <c r="E70">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
         <v>212</v>
-      </c>
-      <c r="B71" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" t="s">
-        <v>214</v>
       </c>
       <c r="D71">
         <v>2023</v>
       </c>
-      <c r="E71"/>
-      <c r="F71">
+      <c r="E71">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
         <v>215</v>
-      </c>
-      <c r="B72" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" t="s">
-        <v>217</v>
       </c>
       <c r="D72">
         <v>2021</v>
       </c>
-      <c r="E72"/>
-      <c r="F72">
+      <c r="E72">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
         <v>218</v>
-      </c>
-      <c r="B73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" t="s">
-        <v>220</v>
       </c>
       <c r="D73">
         <v>2022</v>
       </c>
-      <c r="E73"/>
-      <c r="F73">
+      <c r="E73">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
         <v>221</v>
-      </c>
-      <c r="B74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74" t="s">
-        <v>223</v>
       </c>
       <c r="D74">
         <v>2023</v>
       </c>
-      <c r="E74"/>
-      <c r="F74">
+      <c r="E74">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
         <v>224</v>
-      </c>
-      <c r="B75" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" t="s">
-        <v>226</v>
       </c>
       <c r="D75">
         <v>2020</v>
       </c>
-      <c r="E75"/>
-      <c r="F75">
+      <c r="E75">
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
         <v>227</v>
-      </c>
-      <c r="B76" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" t="s">
-        <v>229</v>
       </c>
       <c r="D76">
         <v>2020</v>
       </c>
-      <c r="E76"/>
-      <c r="F76">
+      <c r="E76">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s">
         <v>230</v>
-      </c>
-      <c r="B77" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" t="s">
-        <v>232</v>
       </c>
       <c r="D77">
         <v>2023</v>
       </c>
-      <c r="E77"/>
-      <c r="F77">
+      <c r="E77">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>232</v>
+      </c>
+      <c r="C78" t="s">
         <v>233</v>
-      </c>
-      <c r="B78" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" t="s">
-        <v>235</v>
       </c>
       <c r="D78">
         <v>2020</v>
       </c>
-      <c r="E78"/>
-      <c r="F78">
+      <c r="E78">
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
         <v>236</v>
-      </c>
-      <c r="B79" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" t="s">
-        <v>238</v>
       </c>
       <c r="D79">
         <v>2015</v>
       </c>
-      <c r="E79"/>
-      <c r="F79">
+      <c r="E79">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
         <v>239</v>
-      </c>
-      <c r="B80" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" t="s">
-        <v>241</v>
       </c>
       <c r="D80">
         <v>2021</v>
       </c>
-      <c r="E80"/>
-      <c r="F80">
+      <c r="E80">
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" t="s">
         <v>242</v>
-      </c>
-      <c r="B81" t="s">
-        <v>243</v>
-      </c>
-      <c r="C81" t="s">
-        <v>244</v>
       </c>
       <c r="D81">
         <v>2022</v>
       </c>
-      <c r="E81"/>
-      <c r="F81">
+      <c r="E81">
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" t="s">
         <v>245</v>
-      </c>
-      <c r="B82" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" t="s">
-        <v>247</v>
       </c>
       <c r="D82">
         <v>2021</v>
       </c>
-      <c r="E82"/>
-      <c r="F82">
+      <c r="E82">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" t="s">
         <v>248</v>
-      </c>
-      <c r="B83" t="s">
-        <v>249</v>
-      </c>
-      <c r="C83" t="s">
-        <v>250</v>
       </c>
       <c r="D83">
         <v>2024</v>
       </c>
-      <c r="E83"/>
-      <c r="F83">
+      <c r="E83">
         <v>545</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" t="s">
         <v>251</v>
-      </c>
-      <c r="B84" t="s">
-        <v>252</v>
-      </c>
-      <c r="C84" t="s">
-        <v>253</v>
       </c>
       <c r="D84">
         <v>2024</v>
       </c>
-      <c r="E84"/>
-      <c r="F84">
+      <c r="E84">
         <v>575</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" t="s">
         <v>254</v>
-      </c>
-      <c r="B85" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" t="s">
-        <v>256</v>
       </c>
       <c r="D85">
         <v>2024</v>
       </c>
-      <c r="E85"/>
-      <c r="F85">
+      <c r="E85">
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" t="s">
         <v>257</v>
-      </c>
-      <c r="B86" t="s">
-        <v>258</v>
-      </c>
-      <c r="C86" t="s">
-        <v>259</v>
       </c>
       <c r="D86">
         <v>2021</v>
       </c>
-      <c r="E86"/>
-      <c r="F86">
+      <c r="E86">
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" t="s">
         <v>260</v>
-      </c>
-      <c r="B87" t="s">
-        <v>261</v>
-      </c>
-      <c r="C87" t="s">
-        <v>262</v>
       </c>
       <c r="D87">
         <v>2020</v>
       </c>
-      <c r="E87"/>
-      <c r="F87">
+      <c r="E87">
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" t="s">
         <v>263</v>
-      </c>
-      <c r="B88" t="s">
-        <v>264</v>
-      </c>
-      <c r="C88" t="s">
-        <v>265</v>
       </c>
       <c r="D88">
         <v>2021</v>
       </c>
-      <c r="E88"/>
-      <c r="F88">
+      <c r="E88">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" t="s">
         <v>266</v>
-      </c>
-      <c r="B89" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" t="s">
-        <v>268</v>
       </c>
       <c r="D89">
         <v>2022</v>
       </c>
-      <c r="E89"/>
-      <c r="F89">
+      <c r="E89">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
         <v>269</v>
-      </c>
-      <c r="B90" t="s">
-        <v>270</v>
-      </c>
-      <c r="C90" t="s">
-        <v>271</v>
       </c>
       <c r="D90">
         <v>2022</v>
       </c>
-      <c r="E90"/>
-      <c r="F90">
+      <c r="E90">
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" t="s">
         <v>272</v>
-      </c>
-      <c r="B91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C91" t="s">
-        <v>274</v>
       </c>
       <c r="D91">
         <v>2020</v>
       </c>
-      <c r="E91"/>
-      <c r="F91">
+      <c r="E91">
         <v>63</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" t="s">
         <v>275</v>
-      </c>
-      <c r="B92" t="s">
-        <v>276</v>
-      </c>
-      <c r="C92" t="s">
-        <v>277</v>
       </c>
       <c r="D92">
         <v>2021</v>
       </c>
-      <c r="E92"/>
-      <c r="F92">
+      <c r="E92">
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
         <v>278</v>
-      </c>
-      <c r="B93" t="s">
-        <v>279</v>
-      </c>
-      <c r="C93" t="s">
-        <v>280</v>
       </c>
       <c r="D93">
         <v>2022</v>
       </c>
-      <c r="E93"/>
-      <c r="F93">
+      <c r="E93">
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>279</v>
+      </c>
+      <c r="B94" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" t="s">
         <v>281</v>
-      </c>
-      <c r="B94" t="s">
-        <v>282</v>
-      </c>
-      <c r="C94" t="s">
-        <v>283</v>
       </c>
       <c r="D94">
         <v>2024</v>
       </c>
-      <c r="E94"/>
-      <c r="F94">
+      <c r="E94">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" t="s">
         <v>284</v>
-      </c>
-      <c r="B95" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" t="s">
-        <v>286</v>
       </c>
       <c r="D95">
         <v>2023</v>
       </c>
-      <c r="E95"/>
-      <c r="F95">
+      <c r="E95">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" t="s">
         <v>287</v>
-      </c>
-      <c r="B96" t="s">
-        <v>288</v>
-      </c>
-      <c r="C96" t="s">
-        <v>289</v>
       </c>
       <c r="D96">
         <v>2022</v>
       </c>
-      <c r="E96"/>
-      <c r="F96">
+      <c r="E96">
         <v>350</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" t="s">
         <v>290</v>
-      </c>
-      <c r="B97" t="s">
-        <v>291</v>
-      </c>
-      <c r="C97" t="s">
-        <v>292</v>
       </c>
       <c r="D97">
         <v>2020</v>
       </c>
-      <c r="E97"/>
-      <c r="F97">
+      <c r="E97">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98" t="s">
         <v>293</v>
-      </c>
-      <c r="B98" t="s">
-        <v>294</v>
-      </c>
-      <c r="C98" t="s">
-        <v>295</v>
       </c>
       <c r="D98">
         <v>2005</v>
       </c>
-      <c r="E98"/>
-      <c r="F98">
+      <c r="E98">
         <v>687</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>294</v>
+      </c>
+      <c r="B99" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" t="s">
         <v>296</v>
-      </c>
-      <c r="B99" t="s">
-        <v>297</v>
-      </c>
-      <c r="C99" t="s">
-        <v>298</v>
       </c>
       <c r="D99">
         <v>2024</v>
       </c>
-      <c r="E99"/>
-      <c r="F99">
+      <c r="E99">
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
-      </c>
-      <c r="C100"/>
+        <v>298</v>
+      </c>
       <c r="D100">
         <v>2021</v>
       </c>
-      <c r="E100"/>
-      <c r="F100">
+      <c r="E100">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" t="s">
+        <v>300</v>
+      </c>
+      <c r="C101" t="s">
         <v>301</v>
-      </c>
-      <c r="B101" t="s">
-        <v>302</v>
-      </c>
-      <c r="C101" t="s">
-        <v>303</v>
       </c>
       <c r="D101">
         <v>2024</v>
       </c>
-      <c r="E101"/>
-      <c r="F101">
+      <c r="E101">
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B102" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" t="s">
         <v>304</v>
-      </c>
-      <c r="B102" t="s">
-        <v>305</v>
-      </c>
-      <c r="C102" t="s">
-        <v>306</v>
       </c>
       <c r="D102">
         <v>2021</v>
       </c>
-      <c r="E102"/>
-      <c r="F102">
+      <c r="E102">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>305</v>
+      </c>
+      <c r="B103" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" t="s">
         <v>307</v>
-      </c>
-      <c r="B103" t="s">
-        <v>308</v>
-      </c>
-      <c r="C103" t="s">
-        <v>309</v>
       </c>
       <c r="D103">
         <v>2021</v>
       </c>
-      <c r="E103"/>
-      <c r="F103">
+      <c r="E103">
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" t="s">
+        <v>309</v>
+      </c>
+      <c r="C104" t="s">
         <v>310</v>
-      </c>
-      <c r="B104" t="s">
-        <v>311</v>
-      </c>
-      <c r="C104" t="s">
-        <v>312</v>
       </c>
       <c r="D104">
         <v>2022</v>
       </c>
-      <c r="E104"/>
-      <c r="F104">
+      <c r="E104">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" t="s">
         <v>313</v>
-      </c>
-      <c r="B105" t="s">
-        <v>314</v>
-      </c>
-      <c r="C105" t="s">
-        <v>315</v>
       </c>
       <c r="D105">
         <v>2022</v>
       </c>
-      <c r="E105"/>
-      <c r="F105">
+      <c r="E105">
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" t="s">
         <v>316</v>
-      </c>
-      <c r="B106" t="s">
-        <v>317</v>
-      </c>
-      <c r="C106" t="s">
-        <v>318</v>
       </c>
       <c r="D106">
         <v>2022</v>
       </c>
-      <c r="E106"/>
-      <c r="F106">
+      <c r="E106">
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>317</v>
+      </c>
+      <c r="B107" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" t="s">
         <v>319</v>
-      </c>
-      <c r="B107" t="s">
-        <v>320</v>
-      </c>
-      <c r="C107" t="s">
-        <v>321</v>
       </c>
       <c r="D107">
         <v>2023</v>
       </c>
-      <c r="E107"/>
-      <c r="F107">
+      <c r="E107">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>320</v>
+      </c>
+      <c r="B108" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" t="s">
         <v>322</v>
-      </c>
-      <c r="B108" t="s">
-        <v>323</v>
-      </c>
-      <c r="C108" t="s">
-        <v>324</v>
       </c>
       <c r="D108">
         <v>2012</v>
       </c>
-      <c r="E108"/>
-      <c r="F108">
+      <c r="E108">
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" t="s">
         <v>325</v>
-      </c>
-      <c r="B109" t="s">
-        <v>326</v>
-      </c>
-      <c r="C109" t="s">
-        <v>327</v>
       </c>
       <c r="D109">
         <v>2021</v>
       </c>
-      <c r="E109"/>
-      <c r="F109">
+      <c r="E109">
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" t="s">
         <v>328</v>
-      </c>
-      <c r="B110" t="s">
-        <v>329</v>
-      </c>
-      <c r="C110" t="s">
-        <v>330</v>
       </c>
       <c r="D110">
         <v>2020</v>
       </c>
-      <c r="E110"/>
-      <c r="F110">
+      <c r="E110">
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" t="s">
         <v>331</v>
-      </c>
-      <c r="B111" t="s">
-        <v>332</v>
-      </c>
-      <c r="C111" t="s">
-        <v>333</v>
       </c>
       <c r="D111">
         <v>2023</v>
       </c>
-      <c r="E111"/>
-      <c r="F111">
+      <c r="E111">
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" t="s">
         <v>334</v>
-      </c>
-      <c r="B112" t="s">
-        <v>335</v>
-      </c>
-      <c r="C112" t="s">
-        <v>336</v>
       </c>
       <c r="D112">
         <v>2024</v>
       </c>
-      <c r="E112"/>
-      <c r="F112">
+      <c r="E112">
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" t="s">
         <v>337</v>
-      </c>
-      <c r="B113" t="s">
-        <v>338</v>
-      </c>
-      <c r="C113" t="s">
-        <v>339</v>
       </c>
       <c r="D113">
         <v>2019</v>
       </c>
-      <c r="E113"/>
-      <c r="F113">
+      <c r="E113">
         <v>193</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" t="s">
         <v>340</v>
-      </c>
-      <c r="B114" t="s">
-        <v>341</v>
-      </c>
-      <c r="C114" t="s">
-        <v>342</v>
       </c>
       <c r="D114">
         <v>2022</v>
       </c>
-      <c r="E114"/>
-      <c r="F114">
+      <c r="E114">
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>341</v>
+      </c>
+      <c r="B115" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" t="s">
         <v>343</v>
-      </c>
-      <c r="B115" t="s">
-        <v>344</v>
-      </c>
-      <c r="C115" t="s">
-        <v>345</v>
       </c>
       <c r="D115">
         <v>2024</v>
       </c>
-      <c r="E115"/>
-      <c r="F115">
+      <c r="E115">
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>344</v>
+      </c>
+      <c r="B116" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" t="s">
         <v>346</v>
-      </c>
-      <c r="B116" t="s">
-        <v>347</v>
-      </c>
-      <c r="C116" t="s">
-        <v>348</v>
       </c>
       <c r="D116">
         <v>2020</v>
       </c>
-      <c r="E116"/>
-      <c r="F116">
+      <c r="E116">
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>347</v>
+      </c>
+      <c r="B117" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" t="s">
         <v>349</v>
-      </c>
-      <c r="B117" t="s">
-        <v>350</v>
-      </c>
-      <c r="C117" t="s">
-        <v>351</v>
       </c>
       <c r="D117">
         <v>2022</v>
       </c>
-      <c r="E117"/>
-      <c r="F117">
+      <c r="E117">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>350</v>
+      </c>
+      <c r="B118" t="s">
+        <v>351</v>
+      </c>
+      <c r="C118" t="s">
         <v>352</v>
-      </c>
-      <c r="B118" t="s">
-        <v>353</v>
-      </c>
-      <c r="C118" t="s">
-        <v>354</v>
       </c>
       <c r="D118">
         <v>2023</v>
       </c>
-      <c r="E118"/>
-      <c r="F118">
+      <c r="E118">
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>353</v>
+      </c>
+      <c r="B119" t="s">
+        <v>354</v>
+      </c>
+      <c r="C119" t="s">
         <v>355</v>
-      </c>
-      <c r="B119" t="s">
-        <v>356</v>
-      </c>
-      <c r="C119" t="s">
-        <v>357</v>
       </c>
       <c r="D119">
         <v>2023</v>
       </c>
-      <c r="E119"/>
-      <c r="F119">
+      <c r="E119">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" t="s">
         <v>358</v>
-      </c>
-      <c r="B120" t="s">
-        <v>359</v>
-      </c>
-      <c r="C120" t="s">
-        <v>360</v>
       </c>
       <c r="D120">
         <v>2019</v>
       </c>
-      <c r="E120"/>
-      <c r="F120">
+      <c r="E120">
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" t="s">
+        <v>360</v>
+      </c>
+      <c r="C121" t="s">
         <v>361</v>
-      </c>
-      <c r="B121" t="s">
-        <v>362</v>
-      </c>
-      <c r="C121" t="s">
-        <v>363</v>
       </c>
       <c r="D121">
         <v>2021</v>
       </c>
-      <c r="E121"/>
-      <c r="F121">
+      <c r="E121">
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>362</v>
+      </c>
+      <c r="B122" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" t="s">
         <v>364</v>
-      </c>
-      <c r="B122" t="s">
-        <v>365</v>
-      </c>
-      <c r="C122" t="s">
-        <v>366</v>
       </c>
       <c r="D122">
         <v>2023</v>
       </c>
-      <c r="E122"/>
-      <c r="F122">
+      <c r="E122">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" t="s">
+        <v>366</v>
+      </c>
+      <c r="C123" t="s">
         <v>367</v>
-      </c>
-      <c r="B123" t="s">
-        <v>368</v>
-      </c>
-      <c r="C123" t="s">
-        <v>369</v>
       </c>
       <c r="D123">
         <v>2021</v>
       </c>
-      <c r="E123"/>
-      <c r="F123">
+      <c r="E123">
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>368</v>
+      </c>
+      <c r="B124" t="s">
+        <v>369</v>
+      </c>
+      <c r="C124" t="s">
         <v>370</v>
-      </c>
-      <c r="B124" t="s">
-        <v>371</v>
-      </c>
-      <c r="C124" t="s">
-        <v>372</v>
       </c>
       <c r="D124">
         <v>2023</v>
       </c>
-      <c r="E124"/>
-      <c r="F124">
+      <c r="E124">
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>371</v>
+      </c>
+      <c r="B125" t="s">
+        <v>372</v>
+      </c>
+      <c r="C125" t="s">
         <v>373</v>
-      </c>
-      <c r="B125" t="s">
-        <v>374</v>
-      </c>
-      <c r="C125" t="s">
-        <v>375</v>
       </c>
       <c r="D125">
         <v>2024</v>
       </c>
-      <c r="E125"/>
-      <c r="F125">
+      <c r="E125">
         <v>76</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>374</v>
+      </c>
+      <c r="B126" t="s">
+        <v>375</v>
+      </c>
+      <c r="C126" t="s">
         <v>376</v>
-      </c>
-      <c r="B126" t="s">
-        <v>377</v>
-      </c>
-      <c r="C126" t="s">
-        <v>378</v>
       </c>
       <c r="D126">
         <v>2023</v>
       </c>
-      <c r="E126"/>
-      <c r="F126">
+      <c r="E126">
         <v>81</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>377</v>
+      </c>
+      <c r="B127" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" t="s">
         <v>379</v>
-      </c>
-      <c r="B127" t="s">
-        <v>380</v>
-      </c>
-      <c r="C127" t="s">
-        <v>381</v>
       </c>
       <c r="D127">
         <v>2019</v>
       </c>
-      <c r="E127"/>
-      <c r="F127">
+      <c r="E127">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>380</v>
+      </c>
+      <c r="B128" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" t="s">
         <v>382</v>
-      </c>
-      <c r="B128" t="s">
-        <v>383</v>
-      </c>
-      <c r="C128" t="s">
-        <v>384</v>
       </c>
       <c r="D128">
         <v>2021</v>
       </c>
-      <c r="E128"/>
-      <c r="F128">
+      <c r="E128">
         <v>395</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>383</v>
+      </c>
+      <c r="B129" t="s">
+        <v>384</v>
+      </c>
+      <c r="C129" t="s">
         <v>385</v>
-      </c>
-      <c r="B129" t="s">
-        <v>386</v>
-      </c>
-      <c r="C129" t="s">
-        <v>387</v>
       </c>
       <c r="D129">
         <v>2019</v>
       </c>
-      <c r="E129"/>
-      <c r="F129">
+      <c r="E129">
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>386</v>
+      </c>
+      <c r="B130" t="s">
+        <v>387</v>
+      </c>
+      <c r="C130" t="s">
         <v>388</v>
-      </c>
-      <c r="B130" t="s">
-        <v>389</v>
-      </c>
-      <c r="C130" t="s">
-        <v>390</v>
       </c>
       <c r="D130">
         <v>2020</v>
       </c>
-      <c r="E130"/>
-      <c r="F130">
+      <c r="E130">
         <v>440</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>389</v>
+      </c>
+      <c r="B131" t="s">
+        <v>390</v>
+      </c>
+      <c r="C131" t="s">
         <v>391</v>
-      </c>
-      <c r="B131" t="s">
-        <v>392</v>
-      </c>
-      <c r="C131" t="s">
-        <v>393</v>
       </c>
       <c r="D131">
         <v>2019</v>
       </c>
-      <c r="E131"/>
-      <c r="F131">
+      <c r="E131">
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>392</v>
+      </c>
+      <c r="B132" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" t="s">
         <v>394</v>
-      </c>
-      <c r="B132" t="s">
-        <v>395</v>
-      </c>
-      <c r="C132" t="s">
-        <v>396</v>
       </c>
       <c r="D132">
         <v>2022</v>
       </c>
-      <c r="E132"/>
-      <c r="F132">
+      <c r="E132">
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>395</v>
+      </c>
+      <c r="B133" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" t="s">
         <v>397</v>
-      </c>
-      <c r="B133" t="s">
-        <v>398</v>
-      </c>
-      <c r="C133" t="s">
-        <v>399</v>
       </c>
       <c r="D133">
         <v>2022</v>
       </c>
-      <c r="E133"/>
-      <c r="F133">
+      <c r="E133">
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>398</v>
+      </c>
+      <c r="B134" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" t="s">
         <v>400</v>
-      </c>
-      <c r="B134" t="s">
-        <v>401</v>
-      </c>
-      <c r="C134" t="s">
-        <v>402</v>
       </c>
       <c r="D134">
         <v>2023</v>
       </c>
-      <c r="E134"/>
-      <c r="F134">
+      <c r="E134">
         <v>150</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>401</v>
+      </c>
+      <c r="B135" t="s">
+        <v>402</v>
+      </c>
+      <c r="C135" t="s">
         <v>403</v>
-      </c>
-      <c r="B135" t="s">
-        <v>404</v>
-      </c>
-      <c r="C135" t="s">
-        <v>405</v>
       </c>
       <c r="D135">
         <v>1998</v>
       </c>
-      <c r="E135"/>
-      <c r="F135">
+      <c r="E135">
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>404</v>
+      </c>
+      <c r="B136" t="s">
+        <v>405</v>
+      </c>
+      <c r="C136" t="s">
         <v>406</v>
-      </c>
-      <c r="B136" t="s">
-        <v>407</v>
-      </c>
-      <c r="C136" t="s">
-        <v>408</v>
       </c>
       <c r="D136">
         <v>2023</v>
       </c>
-      <c r="E136"/>
-      <c r="F136">
+      <c r="E136">
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>407</v>
+      </c>
+      <c r="B137" t="s">
+        <v>408</v>
+      </c>
+      <c r="C137" t="s">
         <v>409</v>
-      </c>
-      <c r="B137" t="s">
-        <v>410</v>
-      </c>
-      <c r="C137" t="s">
-        <v>411</v>
       </c>
       <c r="D137">
         <v>2021</v>
       </c>
-      <c r="E137"/>
-      <c r="F137">
+      <c r="E137">
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>410</v>
+      </c>
+      <c r="B138" t="s">
+        <v>411</v>
+      </c>
+      <c r="C138" t="s">
         <v>412</v>
-      </c>
-      <c r="B138" t="s">
-        <v>413</v>
-      </c>
-      <c r="C138" t="s">
-        <v>414</v>
       </c>
       <c r="D138">
         <v>2020</v>
       </c>
-      <c r="E138"/>
-      <c r="F138">
+      <c r="E138">
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>413</v>
+      </c>
+      <c r="B139" t="s">
+        <v>414</v>
+      </c>
+      <c r="C139" t="s">
         <v>415</v>
-      </c>
-      <c r="B139" t="s">
-        <v>416</v>
-      </c>
-      <c r="C139" t="s">
-        <v>417</v>
       </c>
       <c r="D139">
         <v>2023</v>
       </c>
-      <c r="E139"/>
-      <c r="F139">
+      <c r="E139">
         <v>360</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>416</v>
+      </c>
+      <c r="B140" t="s">
+        <v>417</v>
+      </c>
+      <c r="C140" t="s">
         <v>418</v>
-      </c>
-      <c r="B140" t="s">
-        <v>419</v>
-      </c>
-      <c r="C140" t="s">
-        <v>420</v>
       </c>
       <c r="D140">
         <v>2023</v>
       </c>
-      <c r="E140"/>
-      <c r="F140">
+      <c r="E140">
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>419</v>
+      </c>
+      <c r="B141" t="s">
+        <v>420</v>
+      </c>
+      <c r="C141" t="s">
         <v>421</v>
-      </c>
-      <c r="B141" t="s">
-        <v>422</v>
-      </c>
-      <c r="C141" t="s">
-        <v>423</v>
       </c>
       <c r="D141">
         <v>2024</v>
       </c>
-      <c r="E141"/>
-      <c r="F141">
+      <c r="E141">
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>422</v>
+      </c>
+      <c r="B142" t="s">
+        <v>423</v>
+      </c>
+      <c r="C142" t="s">
         <v>424</v>
-      </c>
-      <c r="B142" t="s">
-        <v>425</v>
-      </c>
-      <c r="C142" t="s">
-        <v>426</v>
       </c>
       <c r="D142">
         <v>2021</v>
       </c>
-      <c r="E142"/>
-      <c r="F142">
+      <c r="E142">
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>425</v>
+      </c>
+      <c r="B143" t="s">
+        <v>426</v>
+      </c>
+      <c r="C143" t="s">
         <v>427</v>
-      </c>
-      <c r="B143" t="s">
-        <v>428</v>
-      </c>
-      <c r="C143" t="s">
-        <v>429</v>
       </c>
       <c r="D143">
         <v>2023</v>
       </c>
-      <c r="E143"/>
-      <c r="F143">
+      <c r="E143">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>428</v>
+      </c>
+      <c r="B144" t="s">
+        <v>429</v>
+      </c>
+      <c r="C144" t="s">
         <v>430</v>
-      </c>
-      <c r="B144" t="s">
-        <v>431</v>
-      </c>
-      <c r="C144" t="s">
-        <v>432</v>
       </c>
       <c r="D144">
         <v>2024</v>
       </c>
-      <c r="E144"/>
-      <c r="F144">
+      <c r="E144">
         <v>336</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>431</v>
+      </c>
+      <c r="B145" t="s">
+        <v>432</v>
+      </c>
+      <c r="C145" t="s">
         <v>433</v>
-      </c>
-      <c r="B145" t="s">
-        <v>434</v>
-      </c>
-      <c r="C145" t="s">
-        <v>435</v>
       </c>
       <c r="D145">
         <v>2020</v>
       </c>
-      <c r="E145"/>
-      <c r="F145">
+      <c r="E145">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>434</v>
+      </c>
+      <c r="B146" t="s">
+        <v>435</v>
+      </c>
+      <c r="C146" t="s">
         <v>436</v>
-      </c>
-      <c r="B146" t="s">
-        <v>437</v>
-      </c>
-      <c r="C146" t="s">
-        <v>438</v>
       </c>
       <c r="D146">
         <v>2024</v>
       </c>
-      <c r="E146"/>
-      <c r="F146">
+      <c r="E146">
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>437</v>
+      </c>
+      <c r="B147" t="s">
+        <v>438</v>
+      </c>
+      <c r="C147" t="s">
         <v>439</v>
-      </c>
-      <c r="B147" t="s">
-        <v>440</v>
-      </c>
-      <c r="C147" t="s">
-        <v>441</v>
       </c>
       <c r="D147">
         <v>2022</v>
       </c>
-      <c r="E147"/>
-      <c r="F147">
+      <c r="E147">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>440</v>
+      </c>
+      <c r="B148" t="s">
+        <v>441</v>
+      </c>
+      <c r="C148" t="s">
         <v>442</v>
-      </c>
-      <c r="B148" t="s">
-        <v>443</v>
-      </c>
-      <c r="C148" t="s">
-        <v>444</v>
       </c>
       <c r="D148">
         <v>2023</v>
       </c>
-      <c r="E148"/>
-      <c r="F148">
+      <c r="E148">
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>443</v>
+      </c>
+      <c r="B149" t="s">
+        <v>444</v>
+      </c>
+      <c r="C149" t="s">
         <v>445</v>
-      </c>
-      <c r="B149" t="s">
-        <v>446</v>
-      </c>
-      <c r="C149" t="s">
-        <v>447</v>
       </c>
       <c r="D149">
         <v>2021</v>
       </c>
-      <c r="E149"/>
-      <c r="F149">
+      <c r="E149">
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>446</v>
+      </c>
+      <c r="B150" t="s">
+        <v>447</v>
+      </c>
+      <c r="C150" t="s">
         <v>448</v>
-      </c>
-      <c r="B150" t="s">
-        <v>449</v>
-      </c>
-      <c r="C150" t="s">
-        <v>450</v>
       </c>
       <c r="D150">
         <v>2022</v>
       </c>
-      <c r="E150"/>
-      <c r="F150">
+      <c r="E150">
         <v>316</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" t="s">
+        <v>450</v>
+      </c>
+      <c r="C151" t="s">
         <v>451</v>
-      </c>
-      <c r="B151" t="s">
-        <v>452</v>
-      </c>
-      <c r="C151" t="s">
-        <v>453</v>
       </c>
       <c r="D151">
         <v>2005</v>
       </c>
-      <c r="E151"/>
-      <c r="F151">
+      <c r="E151">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>452</v>
+      </c>
+      <c r="B152" t="s">
+        <v>453</v>
+      </c>
+      <c r="C152" t="s">
         <v>454</v>
-      </c>
-      <c r="B152" t="s">
-        <v>455</v>
-      </c>
-      <c r="C152" t="s">
-        <v>456</v>
       </c>
       <c r="D152">
         <v>2023</v>
       </c>
-      <c r="E152"/>
-      <c r="F152">
+      <c r="E152">
         <v>460</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>455</v>
+      </c>
+      <c r="B153" t="s">
+        <v>456</v>
+      </c>
+      <c r="C153" t="s">
         <v>457</v>
-      </c>
-      <c r="B153" t="s">
-        <v>458</v>
-      </c>
-      <c r="C153" t="s">
-        <v>459</v>
       </c>
       <c r="D153">
         <v>2024</v>
       </c>
-      <c r="E153"/>
-      <c r="F153">
+      <c r="E153">
         <v>230</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>458</v>
+      </c>
+      <c r="B154" t="s">
+        <v>459</v>
+      </c>
+      <c r="C154" t="s">
         <v>460</v>
-      </c>
-      <c r="B154" t="s">
-        <v>461</v>
-      </c>
-      <c r="C154" t="s">
-        <v>462</v>
       </c>
       <c r="D154">
         <v>2021</v>
       </c>
-      <c r="E154"/>
-      <c r="F154">
+      <c r="E154">
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>461</v>
+      </c>
+      <c r="B155" t="s">
+        <v>462</v>
+      </c>
+      <c r="C155" t="s">
         <v>463</v>
-      </c>
-      <c r="B155" t="s">
-        <v>464</v>
-      </c>
-      <c r="C155" t="s">
-        <v>465</v>
       </c>
       <c r="D155">
         <v>2022</v>
       </c>
-      <c r="E155"/>
-      <c r="F155">
+      <c r="E155">
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>464</v>
+      </c>
+      <c r="B156" t="s">
+        <v>465</v>
+      </c>
+      <c r="C156" t="s">
         <v>466</v>
-      </c>
-      <c r="B156" t="s">
-        <v>467</v>
-      </c>
-      <c r="C156" t="s">
-        <v>468</v>
       </c>
       <c r="D156">
         <v>2020</v>
       </c>
-      <c r="E156"/>
-      <c r="F156">
+      <c r="E156">
         <v>329</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>467</v>
+      </c>
+      <c r="B157" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" t="s">
         <v>469</v>
-      </c>
-      <c r="B157" t="s">
-        <v>470</v>
-      </c>
-      <c r="C157" t="s">
-        <v>471</v>
       </c>
       <c r="D157">
         <v>2024</v>
       </c>
-      <c r="E157"/>
-      <c r="F157">
+      <c r="E157">
         <v>450</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>470</v>
+      </c>
+      <c r="B158" t="s">
+        <v>471</v>
+      </c>
+      <c r="C158" t="s">
         <v>472</v>
-      </c>
-      <c r="B158" t="s">
-        <v>473</v>
-      </c>
-      <c r="C158" t="s">
-        <v>474</v>
       </c>
       <c r="D158">
         <v>2018</v>
       </c>
-      <c r="E158"/>
-      <c r="F158">
+      <c r="E158">
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>473</v>
+      </c>
+      <c r="B159" t="s">
+        <v>474</v>
+      </c>
+      <c r="C159" t="s">
         <v>475</v>
-      </c>
-      <c r="B159" t="s">
-        <v>476</v>
-      </c>
-      <c r="C159" t="s">
-        <v>477</v>
       </c>
       <c r="D159">
         <v>2021</v>
       </c>
-      <c r="E159"/>
-      <c r="F159">
+      <c r="E159">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>476</v>
+      </c>
+      <c r="B160" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" t="s">
         <v>478</v>
-      </c>
-      <c r="B160" t="s">
-        <v>479</v>
-      </c>
-      <c r="C160" t="s">
-        <v>480</v>
       </c>
       <c r="D160">
         <v>2022</v>
       </c>
-      <c r="E160"/>
-      <c r="F160">
+      <c r="E160">
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>479</v>
+      </c>
+      <c r="B161" t="s">
+        <v>480</v>
+      </c>
+      <c r="C161" t="s">
         <v>481</v>
-      </c>
-      <c r="B161" t="s">
-        <v>482</v>
-      </c>
-      <c r="C161" t="s">
-        <v>483</v>
       </c>
       <c r="D161">
         <v>2021</v>
       </c>
-      <c r="E161"/>
-      <c r="F161">
+      <c r="E161">
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>482</v>
+      </c>
+      <c r="B162" t="s">
+        <v>483</v>
+      </c>
+      <c r="C162" t="s">
         <v>484</v>
-      </c>
-      <c r="B162" t="s">
-        <v>485</v>
-      </c>
-      <c r="C162" t="s">
-        <v>486</v>
       </c>
       <c r="D162">
         <v>2020</v>
       </c>
-      <c r="E162"/>
-      <c r="F162">
+      <c r="E162">
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>485</v>
+      </c>
+      <c r="B163" t="s">
+        <v>486</v>
+      </c>
+      <c r="C163" t="s">
         <v>487</v>
-      </c>
-      <c r="B163" t="s">
-        <v>488</v>
-      </c>
-      <c r="C163" t="s">
-        <v>489</v>
       </c>
       <c r="D163">
         <v>2021</v>
       </c>
-      <c r="E163"/>
-      <c r="F163">
+      <c r="E163">
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>488</v>
+      </c>
+      <c r="B164" t="s">
+        <v>489</v>
+      </c>
+      <c r="C164" t="s">
         <v>490</v>
-      </c>
-      <c r="B164" t="s">
-        <v>491</v>
-      </c>
-      <c r="C164" t="s">
-        <v>492</v>
       </c>
       <c r="D164">
         <v>2019</v>
       </c>
-      <c r="E164"/>
-      <c r="F164">
+      <c r="E164">
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>491</v>
+      </c>
+      <c r="B165" t="s">
+        <v>492</v>
+      </c>
+      <c r="C165" t="s">
         <v>493</v>
-      </c>
-      <c r="B165" t="s">
-        <v>494</v>
-      </c>
-      <c r="C165" t="s">
-        <v>495</v>
       </c>
       <c r="D165">
         <v>2022</v>
       </c>
-      <c r="E165"/>
-      <c r="F165">
+      <c r="E165">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>494</v>
+      </c>
+      <c r="B166" t="s">
+        <v>495</v>
+      </c>
+      <c r="C166" t="s">
         <v>496</v>
-      </c>
-      <c r="B166" t="s">
-        <v>497</v>
-      </c>
-      <c r="C166" t="s">
-        <v>498</v>
       </c>
       <c r="D166">
         <v>2023</v>
       </c>
-      <c r="E166"/>
-      <c r="F166">
+      <c r="E166">
         <v>250</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>497</v>
+      </c>
+      <c r="B167" t="s">
+        <v>498</v>
+      </c>
+      <c r="C167" t="s">
         <v>499</v>
-      </c>
-      <c r="B167" t="s">
-        <v>500</v>
-      </c>
-      <c r="C167" t="s">
-        <v>501</v>
       </c>
       <c r="D167">
         <v>2020</v>
       </c>
-      <c r="E167"/>
-      <c r="F167">
+      <c r="E167">
         <v>35</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>500</v>
+      </c>
+      <c r="B168" t="s">
+        <v>501</v>
+      </c>
+      <c r="C168" t="s">
         <v>502</v>
-      </c>
-      <c r="B168" t="s">
-        <v>503</v>
-      </c>
-      <c r="C168" t="s">
-        <v>504</v>
       </c>
       <c r="D168">
         <v>2018</v>
       </c>
-      <c r="E168"/>
-      <c r="F168">
+      <c r="E168">
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" t="s">
+        <v>504</v>
+      </c>
+      <c r="C169" t="s">
         <v>505</v>
-      </c>
-      <c r="B169" t="s">
-        <v>506</v>
-      </c>
-      <c r="C169" t="s">
-        <v>507</v>
       </c>
       <c r="D169">
         <v>2020</v>
       </c>
-      <c r="E169"/>
-      <c r="F169">
+      <c r="E169">
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" t="s">
+        <v>507</v>
+      </c>
+      <c r="C170" t="s">
         <v>508</v>
-      </c>
-      <c r="B170" t="s">
-        <v>509</v>
-      </c>
-      <c r="C170" t="s">
-        <v>510</v>
       </c>
       <c r="D170">
         <v>2023</v>
       </c>
-      <c r="E170"/>
-      <c r="F170">
+      <c r="E170">
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>509</v>
+      </c>
+      <c r="B171" t="s">
+        <v>510</v>
+      </c>
+      <c r="C171" t="s">
         <v>511</v>
-      </c>
-      <c r="B171" t="s">
-        <v>512</v>
-      </c>
-      <c r="C171" t="s">
-        <v>513</v>
       </c>
       <c r="D171">
         <v>2022</v>
       </c>
-      <c r="E171"/>
-      <c r="F171">
+      <c r="E171">
         <v>90</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>512</v>
+      </c>
+      <c r="B172" t="s">
+        <v>513</v>
+      </c>
+      <c r="C172" t="s">
         <v>514</v>
-      </c>
-      <c r="B172" t="s">
-        <v>515</v>
-      </c>
-      <c r="C172" t="s">
-        <v>516</v>
       </c>
       <c r="D172">
         <v>2024</v>
       </c>
-      <c r="E172"/>
-      <c r="F172">
+      <c r="E172">
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>515</v>
+      </c>
+      <c r="B173" t="s">
+        <v>516</v>
+      </c>
+      <c r="C173" t="s">
         <v>517</v>
-      </c>
-      <c r="B173" t="s">
-        <v>518</v>
-      </c>
-      <c r="C173" t="s">
-        <v>519</v>
       </c>
       <c r="D173">
         <v>2019</v>
       </c>
-      <c r="E173"/>
-      <c r="F173">
+      <c r="E173">
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>518</v>
+      </c>
+      <c r="B174" t="s">
+        <v>519</v>
+      </c>
+      <c r="C174" t="s">
         <v>520</v>
-      </c>
-      <c r="B174" t="s">
-        <v>521</v>
-      </c>
-      <c r="C174" t="s">
-        <v>522</v>
       </c>
       <c r="D174">
         <v>2010</v>
       </c>
-      <c r="E174"/>
-      <c r="F174">
+      <c r="E174">
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>521</v>
+      </c>
+      <c r="B175" t="s">
+        <v>522</v>
+      </c>
+      <c r="C175" t="s">
         <v>523</v>
-      </c>
-      <c r="B175" t="s">
-        <v>524</v>
-      </c>
-      <c r="C175" t="s">
-        <v>525</v>
       </c>
       <c r="D175">
         <v>2023</v>
       </c>
-      <c r="E175"/>
-      <c r="F175">
+      <c r="E175">
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>524</v>
+      </c>
+      <c r="B176" t="s">
+        <v>525</v>
+      </c>
+      <c r="C176" t="s">
         <v>526</v>
-      </c>
-      <c r="B176" t="s">
-        <v>527</v>
-      </c>
-      <c r="C176" t="s">
-        <v>528</v>
       </c>
       <c r="D176">
         <v>2020</v>
       </c>
-      <c r="E176"/>
-      <c r="F176">
+      <c r="E176">
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>527</v>
+      </c>
+      <c r="B177" t="s">
+        <v>528</v>
+      </c>
+      <c r="C177" t="s">
         <v>529</v>
-      </c>
-      <c r="B177" t="s">
-        <v>530</v>
-      </c>
-      <c r="C177" t="s">
-        <v>531</v>
       </c>
       <c r="D177">
         <v>1996</v>
       </c>
-      <c r="E177"/>
-      <c r="F177">
+      <c r="E177">
         <v>88</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>530</v>
+      </c>
+      <c r="B178" t="s">
+        <v>531</v>
+      </c>
+      <c r="C178" t="s">
         <v>532</v>
-      </c>
-      <c r="B178" t="s">
-        <v>533</v>
-      </c>
-      <c r="C178" t="s">
-        <v>534</v>
       </c>
       <c r="D178">
         <v>2000</v>
       </c>
-      <c r="E178"/>
-      <c r="F178">
+      <c r="E178">
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>533</v>
+      </c>
+      <c r="B179" t="s">
+        <v>534</v>
+      </c>
+      <c r="C179" t="s">
         <v>535</v>
-      </c>
-      <c r="B179" t="s">
-        <v>536</v>
-      </c>
-      <c r="C179" t="s">
-        <v>537</v>
       </c>
       <c r="D179">
         <v>2020</v>
       </c>
-      <c r="E179"/>
-      <c r="F179">
+      <c r="E179">
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>536</v>
+      </c>
+      <c r="B180" t="s">
+        <v>537</v>
+      </c>
+      <c r="C180" t="s">
         <v>538</v>
-      </c>
-      <c r="B180" t="s">
-        <v>539</v>
-      </c>
-      <c r="C180" t="s">
-        <v>540</v>
       </c>
       <c r="D180">
         <v>2022</v>
       </c>
-      <c r="E180"/>
-      <c r="F180">
+      <c r="E180">
         <v>349</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>539</v>
+      </c>
+      <c r="B181" t="s">
+        <v>540</v>
+      </c>
+      <c r="C181" t="s">
         <v>541</v>
-      </c>
-      <c r="B181" t="s">
-        <v>542</v>
-      </c>
-      <c r="C181" t="s">
-        <v>543</v>
       </c>
       <c r="D181">
         <v>2023</v>
       </c>
-      <c r="E181"/>
-      <c r="F181">
+      <c r="E181">
         <v>200</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>542</v>
+      </c>
+      <c r="B182" t="s">
+        <v>543</v>
+      </c>
+      <c r="C182" t="s">
         <v>544</v>
-      </c>
-      <c r="B182" t="s">
-        <v>545</v>
-      </c>
-      <c r="C182" t="s">
-        <v>546</v>
       </c>
       <c r="D182">
         <v>2020</v>
       </c>
-      <c r="E182"/>
-      <c r="F182">
+      <c r="E182">
         <v>250</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>545</v>
+      </c>
+      <c r="B183" t="s">
+        <v>546</v>
+      </c>
+      <c r="C183" t="s">
         <v>547</v>
-      </c>
-      <c r="B183" t="s">
-        <v>548</v>
-      </c>
-      <c r="C183" t="s">
-        <v>549</v>
       </c>
       <c r="D183">
         <v>2022</v>
       </c>
-      <c r="E183"/>
-      <c r="F183">
+      <c r="E183">
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>548</v>
+      </c>
+      <c r="B184" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" t="s">
         <v>550</v>
-      </c>
-      <c r="B184" t="s">
-        <v>551</v>
-      </c>
-      <c r="C184" t="s">
-        <v>552</v>
       </c>
       <c r="D184">
         <v>2024</v>
       </c>
-      <c r="E184"/>
-      <c r="F184">
+      <c r="E184">
         <v>113</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>551</v>
+      </c>
+      <c r="B185" t="s">
+        <v>552</v>
+      </c>
+      <c r="C185" t="s">
         <v>553</v>
-      </c>
-      <c r="B185" t="s">
-        <v>554</v>
-      </c>
-      <c r="C185" t="s">
-        <v>555</v>
       </c>
       <c r="D185">
         <v>2020</v>
       </c>
-      <c r="E185"/>
-      <c r="F185">
+      <c r="E185">
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>554</v>
+      </c>
+      <c r="B186" t="s">
+        <v>555</v>
+      </c>
+      <c r="C186" t="s">
         <v>556</v>
-      </c>
-      <c r="B186" t="s">
-        <v>557</v>
-      </c>
-      <c r="C186" t="s">
-        <v>558</v>
       </c>
       <c r="D186">
         <v>2005</v>
       </c>
-      <c r="E186"/>
-      <c r="F186">
+      <c r="E186">
         <v>319</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>557</v>
+      </c>
+      <c r="B187" t="s">
+        <v>558</v>
+      </c>
+      <c r="C187" t="s">
         <v>559</v>
-      </c>
-      <c r="B187" t="s">
-        <v>560</v>
-      </c>
-      <c r="C187" t="s">
-        <v>561</v>
       </c>
       <c r="D187">
         <v>2023</v>
       </c>
-      <c r="E187"/>
-      <c r="F187">
+      <c r="E187">
         <v>500</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>560</v>
+      </c>
+      <c r="B188" t="s">
+        <v>561</v>
+      </c>
+      <c r="C188" t="s">
         <v>562</v>
-      </c>
-      <c r="B188" t="s">
-        <v>563</v>
-      </c>
-      <c r="C188" t="s">
-        <v>564</v>
       </c>
       <c r="D188">
         <v>2022</v>
       </c>
-      <c r="E188"/>
-      <c r="F188">
+      <c r="E188">
         <v>58</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>563</v>
+      </c>
+      <c r="B189" t="s">
+        <v>564</v>
+      </c>
+      <c r="C189" t="s">
         <v>565</v>
-      </c>
-      <c r="B189" t="s">
-        <v>566</v>
-      </c>
-      <c r="C189" t="s">
-        <v>567</v>
       </c>
       <c r="D189">
         <v>2023</v>
       </c>
-      <c r="E189"/>
-      <c r="F189">
+      <c r="E189">
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>566</v>
+      </c>
+      <c r="B190" t="s">
+        <v>567</v>
+      </c>
+      <c r="C190" t="s">
         <v>568</v>
-      </c>
-      <c r="B190" t="s">
-        <v>569</v>
-      </c>
-      <c r="C190" t="s">
-        <v>570</v>
       </c>
       <c r="D190">
         <v>2018</v>
       </c>
-      <c r="E190"/>
-      <c r="F190">
+      <c r="E190">
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>569</v>
+      </c>
+      <c r="B191" t="s">
+        <v>570</v>
+      </c>
+      <c r="C191" t="s">
         <v>571</v>
-      </c>
-      <c r="B191" t="s">
-        <v>572</v>
-      </c>
-      <c r="C191" t="s">
-        <v>573</v>
       </c>
       <c r="D191">
         <v>2023</v>
       </c>
-      <c r="E191"/>
-      <c r="F191">
+      <c r="E191">
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>572</v>
+      </c>
+      <c r="B192" t="s">
+        <v>573</v>
+      </c>
+      <c r="C192" t="s">
         <v>574</v>
-      </c>
-      <c r="B192" t="s">
-        <v>575</v>
-      </c>
-      <c r="C192" t="s">
-        <v>576</v>
       </c>
       <c r="D192">
         <v>2021</v>
       </c>
-      <c r="E192"/>
-      <c r="F192">
+      <c r="E192">
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>575</v>
+      </c>
+      <c r="B193" t="s">
+        <v>576</v>
+      </c>
+      <c r="C193" t="s">
         <v>577</v>
-      </c>
-      <c r="B193" t="s">
-        <v>578</v>
-      </c>
-      <c r="C193" t="s">
-        <v>579</v>
       </c>
       <c r="D193">
         <v>2020</v>
       </c>
-      <c r="E193"/>
-      <c r="F193">
+      <c r="E193">
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>578</v>
+      </c>
+      <c r="B194" t="s">
+        <v>579</v>
+      </c>
+      <c r="C194" t="s">
         <v>580</v>
-      </c>
-      <c r="B194" t="s">
-        <v>581</v>
-      </c>
-      <c r="C194" t="s">
-        <v>582</v>
       </c>
       <c r="D194">
         <v>2022</v>
       </c>
-      <c r="E194"/>
-      <c r="F194">
+      <c r="E194">
         <v>161</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>581</v>
+      </c>
+      <c r="B195" t="s">
+        <v>582</v>
+      </c>
+      <c r="C195" t="s">
         <v>583</v>
-      </c>
-      <c r="B195" t="s">
-        <v>584</v>
-      </c>
-      <c r="C195" t="s">
-        <v>585</v>
       </c>
       <c r="D195">
         <v>2023</v>
       </c>
-      <c r="E195"/>
-      <c r="F195">
+      <c r="E195">
         <v>600</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>584</v>
+      </c>
+      <c r="B196" t="s">
+        <v>585</v>
+      </c>
+      <c r="C196" t="s">
         <v>586</v>
-      </c>
-      <c r="B196" t="s">
-        <v>587</v>
-      </c>
-      <c r="C196" t="s">
-        <v>588</v>
       </c>
       <c r="D196">
         <v>2023</v>
       </c>
-      <c r="E196"/>
-      <c r="F196">
+      <c r="E196">
         <v>125</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>587</v>
+      </c>
+      <c r="B197" t="s">
+        <v>588</v>
+      </c>
+      <c r="C197" t="s">
         <v>589</v>
-      </c>
-      <c r="B197" t="s">
-        <v>590</v>
-      </c>
-      <c r="C197" t="s">
-        <v>591</v>
       </c>
       <c r="D197">
         <v>2021</v>
       </c>
-      <c r="E197"/>
-      <c r="F197">
+      <c r="E197">
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>590</v>
+      </c>
+      <c r="B198" t="s">
+        <v>591</v>
+      </c>
+      <c r="C198" t="s">
         <v>592</v>
-      </c>
-      <c r="B198" t="s">
-        <v>593</v>
-      </c>
-      <c r="C198" t="s">
-        <v>594</v>
       </c>
       <c r="D198">
         <v>2024</v>
       </c>
-      <c r="E198"/>
-      <c r="F198">
+      <c r="E198">
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>593</v>
+      </c>
+      <c r="B199" t="s">
+        <v>594</v>
+      </c>
+      <c r="C199" t="s">
         <v>595</v>
-      </c>
-      <c r="B199" t="s">
-        <v>596</v>
-      </c>
-      <c r="C199" t="s">
-        <v>597</v>
       </c>
       <c r="D199">
         <v>2021</v>
       </c>
-      <c r="E199"/>
-      <c r="F199">
+      <c r="E199">
         <v>529</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>596</v>
+      </c>
+      <c r="B200" t="s">
+        <v>597</v>
+      </c>
+      <c r="C200" t="s">
         <v>598</v>
-      </c>
-      <c r="B200" t="s">
-        <v>599</v>
-      </c>
-      <c r="C200" t="s">
-        <v>600</v>
       </c>
       <c r="D200">
         <v>2019</v>
       </c>
-      <c r="E200"/>
-      <c r="F200">
+      <c r="E200">
         <v>424</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>599</v>
+      </c>
+      <c r="B201" t="s">
+        <v>600</v>
+      </c>
+      <c r="C201" t="s">
         <v>601</v>
-      </c>
-      <c r="B201" t="s">
-        <v>602</v>
-      </c>
-      <c r="C201" t="s">
-        <v>603</v>
       </c>
       <c r="D201">
         <v>2019</v>
       </c>
-      <c r="E201"/>
-      <c r="F201">
+      <c r="E201">
         <v>650</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>602</v>
+      </c>
+      <c r="B202" t="s">
+        <v>603</v>
+      </c>
+      <c r="C202" t="s">
         <v>604</v>
-      </c>
-      <c r="B202" t="s">
-        <v>605</v>
-      </c>
-      <c r="C202" t="s">
-        <v>606</v>
       </c>
       <c r="D202">
         <v>2022</v>
       </c>
-      <c r="E202"/>
-      <c r="F202">
+      <c r="E202">
         <v>435</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>605</v>
+      </c>
+      <c r="B203" t="s">
+        <v>606</v>
+      </c>
+      <c r="C203" t="s">
         <v>607</v>
-      </c>
-      <c r="B203" t="s">
-        <v>608</v>
-      </c>
-      <c r="C203" t="s">
-        <v>609</v>
       </c>
       <c r="D203">
         <v>2024</v>
       </c>
-      <c r="E203"/>
-      <c r="F203">
+      <c r="E203">
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>608</v>
+      </c>
+      <c r="B204" t="s">
+        <v>609</v>
+      </c>
+      <c r="C204" t="s">
         <v>610</v>
-      </c>
-      <c r="B204" t="s">
-        <v>611</v>
-      </c>
-      <c r="C204" t="s">
-        <v>612</v>
       </c>
       <c r="D204">
         <v>2024</v>
       </c>
-      <c r="E204"/>
-      <c r="F204">
+      <c r="E204">
         <v>150</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>611</v>
+      </c>
+      <c r="B205" t="s">
+        <v>612</v>
+      </c>
+      <c r="C205" t="s">
         <v>613</v>
-      </c>
-      <c r="B205" t="s">
-        <v>614</v>
-      </c>
-      <c r="C205" t="s">
-        <v>615</v>
       </c>
       <c r="D205">
         <v>2022</v>
       </c>
-      <c r="E205"/>
-      <c r="F205">
+      <c r="E205">
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>614</v>
+      </c>
+      <c r="B206" t="s">
+        <v>615</v>
+      </c>
+      <c r="C206" t="s">
         <v>616</v>
-      </c>
-      <c r="B206" t="s">
-        <v>617</v>
-      </c>
-      <c r="C206" t="s">
-        <v>618</v>
       </c>
       <c r="D206">
         <v>2020</v>
       </c>
-      <c r="E206"/>
-      <c r="F206">
+      <c r="E206">
         <v>280</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>617</v>
+      </c>
+      <c r="B207" t="s">
+        <v>618</v>
+      </c>
+      <c r="C207" t="s">
         <v>619</v>
-      </c>
-      <c r="B207" t="s">
-        <v>620</v>
-      </c>
-      <c r="C207" t="s">
-        <v>621</v>
       </c>
       <c r="D207">
         <v>2021</v>
       </c>
-      <c r="E207"/>
-      <c r="F207">
+      <c r="E207">
         <v>500</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>620</v>
+      </c>
+      <c r="B208" t="s">
+        <v>621</v>
+      </c>
+      <c r="C208" t="s">
         <v>622</v>
-      </c>
-      <c r="B208" t="s">
-        <v>623</v>
-      </c>
-      <c r="C208" t="s">
-        <v>624</v>
       </c>
       <c r="D208">
         <v>2023</v>
       </c>
-      <c r="E208"/>
-      <c r="F208">
+      <c r="E208">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>623</v>
+      </c>
+      <c r="B209" t="s">
+        <v>624</v>
+      </c>
+      <c r="C209" t="s">
         <v>625</v>
-      </c>
-      <c r="B209" t="s">
-        <v>626</v>
-      </c>
-      <c r="C209" t="s">
-        <v>627</v>
       </c>
       <c r="D209">
         <v>1993</v>
       </c>
-      <c r="E209"/>
-      <c r="F209">
+      <c r="E209">
         <v>301</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>626</v>
+      </c>
+      <c r="B210" t="s">
+        <v>627</v>
+      </c>
+      <c r="C210" t="s">
         <v>628</v>
-      </c>
-      <c r="B210" t="s">
-        <v>629</v>
-      </c>
-      <c r="C210" t="s">
-        <v>630</v>
       </c>
       <c r="D210">
         <v>2021</v>
       </c>
-      <c r="E210"/>
-      <c r="F210">
+      <c r="E210">
         <v>167</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>629</v>
+      </c>
+      <c r="B211" t="s">
+        <v>630</v>
+      </c>
+      <c r="C211" t="s">
         <v>631</v>
-      </c>
-      <c r="B211" t="s">
-        <v>632</v>
-      </c>
-      <c r="C211" t="s">
-        <v>633</v>
       </c>
       <c r="D211">
         <v>2023</v>
       </c>
-      <c r="E211"/>
-      <c r="F211">
+      <c r="E211">
         <v>280</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>